--- a/xl.xlsx
+++ b/xl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c098391602e5dfd0/Technion/semester 5/Machine Learning/HWs/HW2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Technion\semester 5\Machine Learning\HWs\HW2\ML2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F58C98C-C7D3-4274-85DA-008A42592066}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{0F58C98C-C7D3-4274-85DA-008A42592066}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1B295856-5E48-4235-8258-98FBE2D99E54}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AEE34392-CF7B-459A-891E-0A6E0360C655}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>normalization</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>preprocessing.StandardScaler()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> for train_X and SimpleImputer for test_X</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>frist imputation and the scaling</t>
+  </si>
+  <si>
+    <t>avg ~ 85.5</t>
   </si>
 </sst>
 </file>
@@ -62,18 +74,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.8"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,9 +110,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,38 +425,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AF3A2F-A9FB-4E22-9FDB-6C817C3F7BC2}">
-  <dimension ref="B1:G2"/>
+  <dimension ref="B1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="50.7265625" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" customWidth="1"/>
+    <col min="3" max="3" width="56.08984375" customWidth="1"/>
+    <col min="4" max="4" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="17" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="G2">
         <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
